--- a/Excel Data/CentralizedClearing.xlsx
+++ b/Excel Data/CentralizedClearing.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CCSameDayInputter" sheetId="2" r:id="rId1"/>
     <sheet name="CCNormalDayInputter" sheetId="3" r:id="rId2"/>
+    <sheet name="IbgCCSameDayInputter" sheetId="4" r:id="rId3"/>
+    <sheet name="IbgCCNormalDayInputter" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>ReturnCode</t>
   </si>
@@ -353,7 +355,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,4 +422,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>456789</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>456789</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel Data/CentralizedClearing.xlsx
+++ b/Excel Data/CentralizedClearing.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CCSameDayInputter" sheetId="2" r:id="rId1"/>
     <sheet name="CCNormalDayInputter" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>ReturnCode</t>
   </si>
@@ -32,15 +33,47 @@
   </si>
   <si>
     <t>013</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>T.C (Azure)</t>
+  </si>
+  <si>
+    <t>T.C (Desc.)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>119957, 119958</t>
+  </si>
+  <si>
+    <t>119956, 119955</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -63,13 +96,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,35 +535,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>456789</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>10</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -387,35 +586,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>456789</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>10</v>
       </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="172.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
+        <v>118605</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/CentralizedClearing.xlsx
+++ b/Excel Data/CentralizedClearing.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="CCSameDayInputter" sheetId="2" r:id="rId1"/>
     <sheet name="CCNormalDayInputter" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>ReturnCode</t>
   </si>
@@ -33,15 +32,6 @@
   </si>
   <si>
     <t>013</t>
-  </si>
-  <si>
-    <t>debit</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>T.C (Azure)</t>
@@ -88,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -142,40 +132,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -235,26 +195,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,47 +490,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>456789</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -605,86 +566,33 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <v>456789</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="172.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="94.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
-        <v>118605</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel Data/CentralizedClearing.xlsx
+++ b/Excel Data/CentralizedClearing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>ReturnCode</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>119956, 119955</t>
+  </si>
+  <si>
+    <t>GBL0053447</t>
   </si>
 </sst>
 </file>
@@ -491,12 +494,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
@@ -525,8 +528,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>456789</v>
+      <c r="A2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>

--- a/Excel Data/CentralizedClearing.xlsx
+++ b/Excel Data/CentralizedClearing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CCSameDayInputter" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>ReturnCode</t>
   </si>
@@ -81,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -150,21 +150,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -198,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -207,10 +192,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,11 +536,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -579,20 +571,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>456789</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/CentralizedClearing.xlsx
+++ b/Excel Data/CentralizedClearing.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="CCSameDayInputter" sheetId="2" r:id="rId1"/>
     <sheet name="CCNormalDayInputter" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>ReturnCode</t>
   </si>
@@ -50,13 +51,28 @@
   </si>
   <si>
     <t>GBL0053447</t>
+  </si>
+  <si>
+    <t>MBK0179590</t>
+  </si>
+  <si>
+    <t>MBK0179953</t>
+  </si>
+  <si>
+    <t>Conv</t>
+  </si>
+  <si>
+    <t>Ibg</t>
+  </si>
+  <si>
+    <t>ICFKHI0005105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +87,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -195,6 +217,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,12 +501,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
@@ -529,6 +552,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -537,12 +561,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
@@ -572,7 +596,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
@@ -590,4 +614,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel Data/CentralizedClearing.xlsx
+++ b/Excel Data/CentralizedClearing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="CCSameDayInputter" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>ReturnCode</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>ICFKHI0005105</t>
+  </si>
+  <si>
+    <t>CL.NO.MV</t>
   </si>
 </sst>
 </file>
@@ -498,23 +501,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A4:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -522,33 +526,37 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7"/>
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -558,23 +566,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -582,33 +591,37 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
